--- a/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_P_all_time.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_P_all_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lccam\Documents\CU Boulder\Donaldson Lab\Imaging-Paper\Paper Rebuttal\Adjustments_12_2019\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A94C5CB3-F320-42FB-8BA5-DB133F38F15A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACC6E4CE-AA5D-44C3-B3AD-DCE4A24CE772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{A4F8DA6E-A993-4B01-B01C-860A74CC015D}"/>
   </bookViews>
@@ -516,16 +516,16 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>0.33333333333333331</v>
+        <v>0.30952380952380953</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>0.38095238095238093</v>
+        <v>0.40476190476190477</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -651,16 +651,16 @@
         <v>46</v>
       </c>
       <c r="D5">
-        <v>2.1739130434782608E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.10869565217391304</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>0.19565217391304349</v>
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="N5">
-        <v>0.21739130434782608</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="O5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -716,10 +716,10 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>6.9767441860465115E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>9.3023255813953487E-2</v>
@@ -745,10 +745,10 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>0.12</v>
@@ -810,10 +810,10 @@
         <v>2</v>
       </c>
       <c r="J8">
-        <v>7.2727272727272724E-2</v>
+        <v>5.4545454545454543E-2</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>0.14545454545454545</v>
@@ -822,10 +822,10 @@
         <v>8</v>
       </c>
       <c r="N8">
-        <v>0.2</v>
+        <v>0.21818181818181817</v>
       </c>
       <c r="O8">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -845,10 +845,10 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0.21875</v>
@@ -857,10 +857,10 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>3.125E-2</v>
@@ -886,10 +886,10 @@
         <v>38</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2.6315789473684209E-2</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.13157894736842105</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>0.23684210526315788</v>
@@ -933,10 +933,10 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>0.10526315789473684</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>0.15789473684210525</v>
@@ -980,10 +980,10 @@
         <v>39</v>
       </c>
       <c r="D12">
-        <v>0.23076923076923078</v>
+        <v>0.28205128205128205</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>0.35897435897435898</v>
@@ -1118,43 +1118,43 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>0.2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.2</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>0.4</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1227,10 +1227,10 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <v>0.19230769230769232</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>0.30769230769230771</v>
+        <v>0.34615384615384615</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>0.38461538461538464</v>
@@ -1309,22 +1309,22 @@
         <v>52</v>
       </c>
       <c r="D19">
-        <v>0.25</v>
+        <v>0.28846153846153844</v>
       </c>
       <c r="E19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>0.30769230769230771</v>
+        <v>0.32692307692307693</v>
       </c>
       <c r="G19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19">
-        <v>0.36538461538461536</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="I19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J19">
         <v>7.6923076923076927E-2</v>
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="N19">
-        <v>0.23076923076923078</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="O19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1380,16 +1380,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.9230769230769232E-2</v>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>0.11538461538461539</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="O20">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1415,10 +1415,10 @@
         <v>13</v>
       </c>
       <c r="H21">
-        <v>0.40476190476190477</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1474,10 +1474,10 @@
         <v>2</v>
       </c>
       <c r="L22">
-        <v>8.8888888888888892E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22">
         <v>0.1111111111111111</v>
@@ -1527,10 +1527,10 @@
         <v>2</v>
       </c>
       <c r="N23">
-        <v>7.1428571428571425E-2</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.564102564102564E-2</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24">
         <v>7.6923076923076927E-2</v>
@@ -1626,10 +1626,10 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>3.4482758620689655E-2</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>0.41379310344827586</v>
@@ -1650,10 +1650,10 @@
         <v>2</v>
       </c>
       <c r="N26">
-        <v>0.20689655172413793</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="O26">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -1720,10 +1720,10 @@
         <v>10</v>
       </c>
       <c r="L28">
-        <v>0.23076923076923078</v>
+        <v>0.25</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N28">
         <v>0.32692307692307693</v>
@@ -1743,16 +1743,16 @@
         <v>45</v>
       </c>
       <c r="D29">
-        <v>0.1111111111111111</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>0.15555555555555556</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H29">
         <v>0.28888888888888886</v>
@@ -1767,10 +1767,10 @@
         <v>10</v>
       </c>
       <c r="L29">
-        <v>0.24444444444444444</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="M29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>0.33333333333333331</v>
@@ -1790,10 +1790,10 @@
         <v>42</v>
       </c>
       <c r="D30">
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30">
         <v>0.16666666666666666</v>
@@ -1808,10 +1808,10 @@
         <v>8</v>
       </c>
       <c r="J30">
-        <v>0.21428571428571427</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="K30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L30">
         <v>0.23809523809523808</v>
@@ -1837,16 +1837,16 @@
         <v>34</v>
       </c>
       <c r="D31">
-        <v>0.14705882352941177</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31">
-        <v>0.23529411764705882</v>
+        <v>0.26470588235294118</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H31">
         <v>0.3235294117647059</v>
@@ -1855,22 +1855,22 @@
         <v>11</v>
       </c>
       <c r="J31">
-        <v>0.20588235294117646</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="K31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L31">
-        <v>0.3235294117647059</v>
+        <v>0.26470588235294118</v>
       </c>
       <c r="M31">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N31">
-        <v>0.47058823529411764</v>
+        <v>0.44117647058823528</v>
       </c>
       <c r="O31">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -1890,16 +1890,16 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>7.9365079365079361E-2</v>
+        <v>6.3492063492063489E-2</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>0.15873015873015872</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J32">
         <v>1.5873015873015872E-2</v>
@@ -1972,10 +1972,10 @@
         <v>4</v>
       </c>
       <c r="H34">
-        <v>0.17948717948717949</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="I34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J34">
         <v>2.564102564102564E-2</v>
@@ -1990,10 +1990,10 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <v>0.10256410256410256</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -2054,10 +2054,10 @@
         <v>20</v>
       </c>
       <c r="D36">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>0.2</v>
@@ -2119,10 +2119,10 @@
         <v>2</v>
       </c>
       <c r="J37">
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L37">
         <v>0.28000000000000003</v>
@@ -2148,10 +2148,10 @@
         <v>16</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>6.25E-2</v>
@@ -2254,10 +2254,10 @@
         <v>12</v>
       </c>
       <c r="H40">
-        <v>0.625</v>
+        <v>0.59375</v>
       </c>
       <c r="I40">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J40">
         <v>0.1875</v>
@@ -2266,16 +2266,16 @@
         <v>6</v>
       </c>
       <c r="L40">
-        <v>0.1875</v>
+        <v>0.21875</v>
       </c>
       <c r="M40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N40">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="O40">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -2319,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <v>9.5238095238095233E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2336,10 +2336,10 @@
         <v>47</v>
       </c>
       <c r="D42">
-        <v>6.3829787234042548E-2</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>8.5106382978723402E-2</v>
@@ -2354,10 +2354,10 @@
         <v>6</v>
       </c>
       <c r="J42">
-        <v>2.1276595744680851E-2</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42">
         <v>0.10638297872340426</v>
@@ -2401,16 +2401,16 @@
         <v>21</v>
       </c>
       <c r="J43">
-        <v>0.125</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="K43">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L43">
-        <v>0.19791666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>0.28125</v>
@@ -2430,10 +2430,10 @@
         <v>25</v>
       </c>
       <c r="D44">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44">
         <v>0.12</v>
@@ -2442,10 +2442,10 @@
         <v>3</v>
       </c>
       <c r="H44">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44">
         <v>0.04</v>
@@ -2454,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="L44">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N44">
         <v>0.12</v>
@@ -2483,10 +2483,10 @@
         <v>8</v>
       </c>
       <c r="F45">
-        <v>0.34482758620689657</v>
+        <v>0.31034482758620691</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H45">
         <v>0.44827586206896552</v>
@@ -2530,10 +2530,10 @@
         <v>5</v>
       </c>
       <c r="F46">
-        <v>0.21739130434782608</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H46">
         <v>0.30434782608695654</v>
@@ -2577,16 +2577,16 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>3.0303030303030304E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>0.15151515151515152</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J47">
         <v>3.0303030303030304E-2</v>
@@ -2648,10 +2648,10 @@
         <v>3</v>
       </c>
       <c r="N48">
-        <v>0.19565217391304349</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="O48">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -2677,10 +2677,10 @@
         <v>2</v>
       </c>
       <c r="H49">
-        <v>5.3571428571428568E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J49">
         <v>5.3571428571428568E-2</v>
@@ -2695,10 +2695,10 @@
         <v>4</v>
       </c>
       <c r="N49">
-        <v>0.10714285714285714</v>
+        <v>8.9285714285714288E-2</v>
       </c>
       <c r="O49">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -2742,10 +2742,10 @@
         <v>5</v>
       </c>
       <c r="N50">
-        <v>0.21276595744680851</v>
+        <v>0.19148936170212766</v>
       </c>
       <c r="O50">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -2759,28 +2759,28 @@
         <v>45</v>
       </c>
       <c r="D51">
-        <v>0.1111111111111111</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F51">
-        <v>0.13333333333333333</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H51">
-        <v>0.2</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="I51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J51">
-        <v>6.6666666666666666E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L51">
         <v>8.8888888888888892E-2</v>
@@ -2789,10 +2789,10 @@
         <v>4</v>
       </c>
       <c r="N51">
-        <v>0.22222222222222221</v>
+        <v>0.24444444444444444</v>
       </c>
       <c r="O51">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -2824,10 +2824,10 @@
         <v>2</v>
       </c>
       <c r="J52">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L52">
         <v>7.4999999999999997E-2</v>
@@ -2859,10 +2859,10 @@
         <v>3</v>
       </c>
       <c r="F53">
-        <v>0.14705882352941177</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H53">
         <v>0.20588235294117646</v>
@@ -2877,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>2.9411764705882353E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N53">
         <v>8.8235294117647065E-2</v>
@@ -2906,10 +2906,10 @@
         <v>4</v>
       </c>
       <c r="F54">
-        <v>0.10526315789473684</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H54">
         <v>0.13157894736842105</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0.10526315789473684</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>3.4482758620689655E-2</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>3.4482758620689655E-2</v>
@@ -2977,10 +2977,10 @@
         <v>7</v>
       </c>
       <c r="N55">
-        <v>0.2413793103448276</v>
+        <v>0.31034482758620691</v>
       </c>
       <c r="O55">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
